--- a/users.xlsx
+++ b/users.xlsx
@@ -5,40 +5,57 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gyuhyun/Documents/Users/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gyuhyun/Documents/streamlit_dashboard_new/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A0740B-F390-AF4A-A7DA-A2C345E53899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0B4B59-E45A-0C44-A755-BBDE3B48498C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{A7180B81-5BCA-C841-909A-097C3B0F75B3}"/>
   </bookViews>
   <sheets>
     <sheet name="date" sheetId="27" r:id="rId1"/>
-    <sheet name="bnp" sheetId="34" r:id="rId2"/>
-    <sheet name="bnp_invited" sheetId="35" r:id="rId3"/>
-    <sheet name="twinlions" sheetId="28" r:id="rId4"/>
-    <sheet name="twinlions_invited" sheetId="29" r:id="rId5"/>
-    <sheet name="blackstone" sheetId="30" r:id="rId6"/>
-    <sheet name="blackstone_invited" sheetId="31" r:id="rId7"/>
-    <sheet name="schonfeld" sheetId="32" r:id="rId8"/>
-    <sheet name="schonfeld_invited" sheetId="33" r:id="rId9"/>
-    <sheet name="carret" sheetId="1" r:id="rId10"/>
-    <sheet name="carret_invited" sheetId="2" r:id="rId11"/>
-    <sheet name="cgsi" sheetId="3" r:id="rId12"/>
-    <sheet name="cgsi_invited" sheetId="4" r:id="rId13"/>
-    <sheet name="macquarie" sheetId="5" r:id="rId14"/>
-    <sheet name="clsa" sheetId="7" r:id="rId15"/>
-    <sheet name="clsa_invited" sheetId="8" r:id="rId16"/>
-    <sheet name="anek" sheetId="9" r:id="rId17"/>
-    <sheet name="anek_invited" sheetId="10" r:id="rId18"/>
-    <sheet name="panvira" sheetId="11" r:id="rId19"/>
-    <sheet name="panvira_invited" sheetId="12" r:id="rId20"/>
-    <sheet name="rocksprings" sheetId="17" r:id="rId21"/>
-    <sheet name="rocksprings_invited" sheetId="18" r:id="rId22"/>
-    <sheet name="icici" sheetId="19" r:id="rId23"/>
-    <sheet name="j&amp;m_copper" sheetId="21" r:id="rId24"/>
-    <sheet name="redwood" sheetId="25" r:id="rId25"/>
-    <sheet name="redwood_invited" sheetId="26" r:id="rId26"/>
+    <sheet name="stefan" sheetId="53" r:id="rId2"/>
+    <sheet name="heinpark" sheetId="52" r:id="rId3"/>
+    <sheet name="cathay" sheetId="50" r:id="rId4"/>
+    <sheet name="cathay_invited" sheetId="51" r:id="rId5"/>
+    <sheet name="wedbush" sheetId="49" r:id="rId6"/>
+    <sheet name="janchor" sheetId="47" r:id="rId7"/>
+    <sheet name="causeway" sheetId="45" r:id="rId8"/>
+    <sheet name="causeway_invited" sheetId="46" r:id="rId9"/>
+    <sheet name="crescent" sheetId="43" r:id="rId10"/>
+    <sheet name="crescent_invited" sheetId="44" r:id="rId11"/>
+    <sheet name="thirdbridge" sheetId="41" r:id="rId12"/>
+    <sheet name="thirdbridge_invited" sheetId="42" r:id="rId13"/>
+    <sheet name="citigroup" sheetId="39" r:id="rId14"/>
+    <sheet name="coatue" sheetId="40" r:id="rId15"/>
+    <sheet name="trivest" sheetId="37" r:id="rId16"/>
+    <sheet name="trivest_invited" sheetId="38" r:id="rId17"/>
+    <sheet name="barclays" sheetId="36" r:id="rId18"/>
+    <sheet name="bnp" sheetId="34" r:id="rId19"/>
+    <sheet name="bnp_invited" sheetId="35" r:id="rId20"/>
+    <sheet name="twinlions" sheetId="28" r:id="rId21"/>
+    <sheet name="twinlions_invited" sheetId="29" r:id="rId22"/>
+    <sheet name="blackstone" sheetId="30" r:id="rId23"/>
+    <sheet name="blackstone_invited" sheetId="31" r:id="rId24"/>
+    <sheet name="schonfeld" sheetId="32" r:id="rId25"/>
+    <sheet name="schonfeld_invited" sheetId="33" r:id="rId26"/>
+    <sheet name="carret" sheetId="1" r:id="rId27"/>
+    <sheet name="carret_invited" sheetId="2" r:id="rId28"/>
+    <sheet name="cgsi" sheetId="3" r:id="rId29"/>
+    <sheet name="cgsi_invited" sheetId="4" r:id="rId30"/>
+    <sheet name="macquarie" sheetId="5" r:id="rId31"/>
+    <sheet name="clsa" sheetId="7" r:id="rId32"/>
+    <sheet name="clsa_invited" sheetId="8" r:id="rId33"/>
+    <sheet name="anek" sheetId="9" r:id="rId34"/>
+    <sheet name="anek_invited" sheetId="10" r:id="rId35"/>
+    <sheet name="panvira" sheetId="11" r:id="rId36"/>
+    <sheet name="panvira_invited" sheetId="12" r:id="rId37"/>
+    <sheet name="rocksprings" sheetId="17" r:id="rId38"/>
+    <sheet name="rocksprings_invited" sheetId="18" r:id="rId39"/>
+    <sheet name="icici" sheetId="19" r:id="rId40"/>
+    <sheet name="j&amp;m_copper" sheetId="21" r:id="rId41"/>
+    <sheet name="redwood" sheetId="25" r:id="rId42"/>
+    <sheet name="redwood_invited" sheetId="26" r:id="rId43"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="433">
   <si>
     <t>rachel.yin@carretprivate.com</t>
   </si>
@@ -992,13 +1009,400 @@
   </si>
   <si>
     <t>oliver.spensley@asia.bnpparibas.com</t>
+  </si>
+  <si>
+    <t>Barclays</t>
+  </si>
+  <si>
+    <t>Trivest Advisors</t>
+  </si>
+  <si>
+    <t>Third Bridge</t>
+  </si>
+  <si>
+    <t>Janchor Partners</t>
+  </si>
+  <si>
+    <t>Cathay Holdings</t>
+  </si>
+  <si>
+    <t>Stefan Chang</t>
+  </si>
+  <si>
+    <t>hariom_tatsat@mfe.berkeley.edu</t>
+  </si>
+  <si>
+    <t>Harion Tatsat</t>
+  </si>
+  <si>
+    <t>Paying</t>
+  </si>
+  <si>
+    <t>yangxue.wu@trivest-advisors.com</t>
+  </si>
+  <si>
+    <t>Yangxue</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>allen.lee@trivest-advisors.com</t>
+  </si>
+  <si>
+    <t>allen.lee</t>
+  </si>
+  <si>
+    <t>jack.wei@trivest-advisors.com</t>
+  </si>
+  <si>
+    <t>jack.wei</t>
+  </si>
+  <si>
+    <t>lan.xue@trivest-advisors.com</t>
+  </si>
+  <si>
+    <t>lan.xue</t>
+  </si>
+  <si>
+    <t>elsie.cheng@trivest-advisors.com</t>
+  </si>
+  <si>
+    <t>Elsie Haiwen Cheng</t>
+  </si>
+  <si>
+    <t>blocked</t>
+  </si>
+  <si>
+    <t>helen.lou@trivest-advisors.com</t>
+  </si>
+  <si>
+    <t>Helen LOU</t>
+  </si>
+  <si>
+    <t>shuo.yang@trivest-advisors.com</t>
+  </si>
+  <si>
+    <t>Shuo Yang</t>
+  </si>
+  <si>
+    <t>shida.zhang@trivest-advisors.com</t>
+  </si>
+  <si>
+    <t>shida.zhang</t>
+  </si>
+  <si>
+    <t>steven.chen@trivest-advisors.com</t>
+  </si>
+  <si>
+    <t>steven.chen</t>
+  </si>
+  <si>
+    <t>ian.wang@trivest-advisors.com</t>
+  </si>
+  <si>
+    <t>ian.wang</t>
+  </si>
+  <si>
+    <t>lu.sun@trivest-advisors.com</t>
+  </si>
+  <si>
+    <t>lu.sun</t>
+  </si>
+  <si>
+    <t>jintian.mei@trivest-advisors.com</t>
+  </si>
+  <si>
+    <t>simon mei</t>
+  </si>
+  <si>
+    <t>sunkey.wang@trivest-advisors.com</t>
+  </si>
+  <si>
+    <t>Sunkey Wang</t>
+  </si>
+  <si>
+    <t>evan.bi@trivest-advisors.com</t>
+  </si>
+  <si>
+    <t>Zhongyuan BI</t>
+  </si>
+  <si>
+    <t>erica.xie@trivest-advisors.com</t>
+  </si>
+  <si>
+    <t>Erica Xie</t>
+  </si>
+  <si>
+    <t>nan.jiang@trivest-advisors.com</t>
+  </si>
+  <si>
+    <t>jiang nan</t>
+  </si>
+  <si>
+    <t>qiqi.wang@trivest-advisors.com</t>
+  </si>
+  <si>
+    <t>Qiqi Wang</t>
+  </si>
+  <si>
+    <t>jason.he@trivest-advisors.com</t>
+  </si>
+  <si>
+    <t>Tirvest Advisors</t>
+  </si>
+  <si>
+    <t>Citigroup</t>
+  </si>
+  <si>
+    <t>josh.yang@citi.com</t>
+  </si>
+  <si>
+    <t>Josh YAng</t>
+  </si>
+  <si>
+    <t>peter.sc.lee@citi.com</t>
+  </si>
+  <si>
+    <t>Peter Lee</t>
+  </si>
+  <si>
+    <t>Coatue Management</t>
+  </si>
+  <si>
+    <t>dzhengzhi@coatue.com</t>
+  </si>
+  <si>
+    <t>Donald Zheng</t>
+  </si>
+  <si>
+    <t>cpackard@coatue.com</t>
+  </si>
+  <si>
+    <t>Chase Packard</t>
+  </si>
+  <si>
+    <t>simon.zhai@thirdbridge.com</t>
+  </si>
+  <si>
+    <t>Zhai Simon</t>
+  </si>
+  <si>
+    <t>tony.yin@thirdbridge.com</t>
+  </si>
+  <si>
+    <t>Yin Tony</t>
+  </si>
+  <si>
+    <t>claudio.xia-api-user@thirdbridge.com</t>
+  </si>
+  <si>
+    <t>Claudio Xia API User</t>
+  </si>
+  <si>
+    <t>claudio.xia@thirdbridge.com</t>
+  </si>
+  <si>
+    <t>Claudio Xia</t>
+  </si>
+  <si>
+    <t>destin.cao@thirdbridge.com</t>
+  </si>
+  <si>
+    <t>Crescent Rock Capital Management</t>
+  </si>
+  <si>
+    <t>john@crescentrockcapital.com</t>
+  </si>
+  <si>
+    <t>John Rolfe</t>
+  </si>
+  <si>
+    <t>scott@crescentrockcapital.com</t>
+  </si>
+  <si>
+    <t>Scott Mosberg</t>
+  </si>
+  <si>
+    <t>michael@crescentrockcapital.com</t>
+  </si>
+  <si>
+    <t>Michael Marone</t>
+  </si>
+  <si>
+    <t>Crescent Rock Capital Managmenet</t>
+  </si>
+  <si>
+    <t>boris@crescentrockcapital.com</t>
+  </si>
+  <si>
+    <t>chris@crescentrockcapital.com</t>
+  </si>
+  <si>
+    <t>Causeway Capital</t>
+  </si>
+  <si>
+    <t>akc@causewaycap.com</t>
+  </si>
+  <si>
+    <t>Ajay Kc</t>
+  </si>
+  <si>
+    <t>ppetersen@causewaycap.com</t>
+  </si>
+  <si>
+    <t>Pete Peterson</t>
+  </si>
+  <si>
+    <t>nchang@causewaycap.com</t>
+  </si>
+  <si>
+    <t>Nathan Chang</t>
+  </si>
+  <si>
+    <t>ppetersen-api-user@causewaycap.com</t>
+  </si>
+  <si>
+    <t>Pete Peterson API User</t>
+  </si>
+  <si>
+    <t>ngibson@causewaycap.com</t>
+  </si>
+  <si>
+    <t>swilson@causewaycap.com</t>
+  </si>
+  <si>
+    <t>admin@janchorpartners.com</t>
+  </si>
+  <si>
+    <t>Admin Janchor</t>
+  </si>
+  <si>
+    <t>qiang.wang@janchorpartners.com</t>
+  </si>
+  <si>
+    <t>qiang wang</t>
+  </si>
+  <si>
+    <t>shelley.wang@janchorpartners.com</t>
+  </si>
+  <si>
+    <t>Shelley Wang</t>
+  </si>
+  <si>
+    <t>kelly.chan@janchorpartners.com</t>
+  </si>
+  <si>
+    <t>Kelly Chan</t>
+  </si>
+  <si>
+    <t>tian.ren@janchorpartners.com</t>
+  </si>
+  <si>
+    <t>TIAN REN</t>
+  </si>
+  <si>
+    <t>john.ho@janchorpartners.com</t>
+  </si>
+  <si>
+    <t>John Ho</t>
+  </si>
+  <si>
+    <t>janchor_partners@api_user.com</t>
+  </si>
+  <si>
+    <t>Janchor Partners API User</t>
+  </si>
+  <si>
+    <t>rebecca.lo@janchorpartners.com</t>
+  </si>
+  <si>
+    <t>Rebecca Lo</t>
+  </si>
+  <si>
+    <t>flora.liao@janchorpartners.com</t>
+  </si>
+  <si>
+    <t>Flora Liao</t>
+  </si>
+  <si>
+    <t>Wedbush Securities</t>
+  </si>
+  <si>
+    <t>ariel.katz@wedbush.com</t>
+  </si>
+  <si>
+    <t>Ariel Katz</t>
+  </si>
+  <si>
+    <t>jeanlouis.lee@wedbush.com</t>
+  </si>
+  <si>
+    <t>Jean Louis Lee</t>
+  </si>
+  <si>
+    <t>jinjoo.hong@wedbush.com</t>
+  </si>
+  <si>
+    <t>Jinjoo Hong</t>
+  </si>
+  <si>
+    <t>monicakuo@cathayholdings.com.tw</t>
+  </si>
+  <si>
+    <t>Monica Kuo</t>
+  </si>
+  <si>
+    <t>jeff.yen@cathayholdings.com.tw</t>
+  </si>
+  <si>
+    <t>Jeff Yen</t>
+  </si>
+  <si>
+    <t>ericchao@cathayholdings.com.tw</t>
+  </si>
+  <si>
+    <t>Eric Chao</t>
+  </si>
+  <si>
+    <t>cathay_holdings@api_user.com</t>
+  </si>
+  <si>
+    <t>Cathay Holdings API User</t>
+  </si>
+  <si>
+    <t>annie.lee@cathaysec.com.tw</t>
+  </si>
+  <si>
+    <t>marschuang@cathaysec.com.tw</t>
+  </si>
+  <si>
+    <t>ella.hou@cathaysec.com.tw</t>
+  </si>
+  <si>
+    <t>Hein Park Capital</t>
+  </si>
+  <si>
+    <t>jwang@heinpark.com</t>
+  </si>
+  <si>
+    <t>Justin Wang</t>
+  </si>
+  <si>
+    <t>aha@heinpark.com</t>
+  </si>
+  <si>
+    <t>Arnold Ha</t>
+  </si>
+  <si>
+    <t>stefanchang@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1098,6 +1502,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1124,7 +1534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1171,6 +1581,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1508,10 +1921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FE63AB-45E9-904A-AE86-5E5A4A005740}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1715,37 +2128,147 @@
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="B15" s="8">
+        <v>45852</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>285</v>
+      </c>
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16" s="8">
+        <v>45469</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>312</v>
+      </c>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="8:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B17" s="8">
+        <v>45866</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>285</v>
+      </c>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="8:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="B18" s="8">
+        <v>45867</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>285</v>
+      </c>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="8:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B19" s="8">
+        <v>45804</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>285</v>
+      </c>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="8:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B20" s="8">
+        <v>45869</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>285</v>
+      </c>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="8:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="B21" s="15">
+        <v>45817</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>285</v>
+      </c>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="8:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="B22" s="8">
+        <v>45810</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>285</v>
+      </c>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="8:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="B23" s="8">
+        <v>45866</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>285</v>
+      </c>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="8:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="B24" s="8">
+        <v>45870</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>285</v>
+      </c>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="8:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B25" s="8">
+        <v>45869</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>285</v>
+      </c>
       <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B26" s="8">
+        <v>45870</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>285</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1753,6 +2276,1788 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64897F78-4E95-7942-88CC-0179A26F9ACE}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B34A4B8-C631-8143-BB00-E2815E6BA075}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8CB2E2-C0FA-344E-BC94-83D141B2C520}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A72524-0CDA-6F47-9FB1-7368D991B0D8}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116B5286-D570-DF4A-938C-477352B816B1}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC34782-0D41-BE4D-A580-C63699011A6B}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F4E792-0543-0C48-9A24-170CAE99EB74}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" t="s">
+        <v>305</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C15" t="s">
+        <v>305</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C17" t="s">
+        <v>305</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C18" t="s">
+        <v>305</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41985BEC-907B-8A47-8B3C-55DEDB7AD105}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA91D01-0E02-504C-A8E0-E4A8C5AE43F9}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70DABA4-D73A-9C4A-BD45-3FFC84BF05F3}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="D9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="D10" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1811BF58-2CD2-2247-9792-9B3FF8245338}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03170CD5-5125-934F-A115-1D17DE7153AF}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E12DC6-3338-F245-A865-681D2CEB9666}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC15DED-FF42-D74E-B42B-C5DC15A732DE}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CC2D23-B13F-4447-8534-C9D95D831AFB}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAB494C-3F81-EC48-960A-399A209E4687}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{773EF47C-ABDA-2B4A-B5AE-B91E45AC94FC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADDC1DA0-7B88-1E42-A9E3-3A54D29AD15F}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CB7590-605D-8449-B2FD-96C21A5A1416}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954D22C4-69EE-EE49-A97B-EE58C459D581}">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -2023,7 +4328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B2AB4A-3ABC-9244-B8C5-FE46542EE78D}">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -2082,7 +4387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA517709-6AD5-EB47-A072-569CF8321F17}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -2393,7 +4698,77 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD397864-7418-E640-9B30-E7E2D25019B2}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16D7783-4037-F648-9880-98E87D4D1115}">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -2466,7 +4841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2577BC-8E86-8442-B0D0-E8149C958E66}">
   <dimension ref="A1:E22"/>
   <sheetViews>
@@ -2769,7 +5144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B76C5C3-FCF7-7643-BB3D-9A0D6591C2D8}">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -2991,7 +5366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBF9DA1-0027-4646-984D-477CA814F6AA}">
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -3204,7 +5579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD7BE0E-3A9C-3C4B-AD88-E42C390A0042}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -3268,7 +5643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AB057C-AAB7-304B-8B03-D91946C03157}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -3338,7 +5713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BD8450-3D6A-2844-B51B-4BB55AADF2F6}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -3399,174 +5774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70DABA4-D73A-9C4A-BD45-3FFC84BF05F3}">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C4" t="s">
-        <v>287</v>
-      </c>
-      <c r="D4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C6" t="s">
-        <v>287</v>
-      </c>
-      <c r="D6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C7" t="s">
-        <v>287</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C8" t="s">
-        <v>287</v>
-      </c>
-      <c r="D8" t="s">
-        <v>204</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="D9" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="D10" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCF1C8E-491F-D84F-B8C6-D75AE41E676E}">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -3631,7 +5839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171458C0-70BA-BB43-97B3-819816159727}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -3776,7 +5984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F8C68A-B9BA-9743-BE06-2841AAAA9C55}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3819,7 +6027,115 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18408018-B24C-C848-8FCA-36330368A4AB}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5849B3EF-4806-7646-80B0-1F8B3F584CC7}">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -3900,7 +6216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D26009C-03B2-E14D-A4A0-339B3D7C115B}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -3954,7 +6270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AD43AC-2D64-9042-9D64-4C344B77958F}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -4000,7 +6316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0C1005-93B6-B545-96A6-84A08D6CABE3}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -4035,12 +6351,166 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03170CD5-5125-934F-A115-1D17DE7153AF}">
-  <dimension ref="A1:H3"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65F1EF6-9FD5-6B47-B91A-DE47510CCF6E}">
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95775B31-55C2-064A-B28D-4A4B88D339B5}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="B4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8924A50-A599-0044-9121-3B47011A8463}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4050,49 +6520,191 @@
         <v>30</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
-        <v>75</v>
+      <c r="D1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>302</v>
+        <v>391</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>287</v>
+        <v>392</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+        <v>307</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>303</v>
+        <v>393</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>287</v>
+        <v>394</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E12DC6-3338-F245-A865-681D2CEB9666}">
-  <dimension ref="A1:I3"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B73E56-8500-EF42-AE4A-88081B5A82FF}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -4119,17 +6731,15 @@
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>234</v>
+        <v>381</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>192</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="C2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -4137,507 +6747,48 @@
     </row>
     <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>236</v>
+        <v>383</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>192</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC15DED-FF42-D74E-B42B-C5DC15A732DE}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CC2D23-B13F-4447-8534-C9D95D831AFB}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>243</v>
+        <v>385</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>192</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="C4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAB494C-3F81-EC48-960A-399A209E4687}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="B2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{773EF47C-ABDA-2B4A-B5AE-B91E45AC94FC}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADDC1DA0-7B88-1E42-A9E3-3A54D29AD15F}">
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>254</v>
+        <v>387</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+        <v>388</v>
+      </c>
+      <c r="C5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="I5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4645,11 +6796,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CB7590-605D-8449-B2FD-96C21A5A1416}">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9671278A-72E9-2840-AE2D-9A3E20D7002E}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4667,53 +6818,53 @@
     </row>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>231</v>
+        <v>389</v>
+      </c>
+      <c r="B2" t="s">
+        <v>380</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>231</v>
+        <v>390</v>
+      </c>
+      <c r="B3" t="s">
+        <v>380</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="D5" s="1"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/users.xlsx
+++ b/users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gyuhyun/Documents/streamlit_dashboard_new/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0B4B59-E45A-0C44-A755-BBDE3B48498C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC84618-40F8-C949-BDC3-593B7F181AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{A7180B81-5BCA-C841-909A-097C3B0F75B3}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{A7180B81-5BCA-C841-909A-097C3B0F75B3}"/>
   </bookViews>
   <sheets>
     <sheet name="date" sheetId="27" r:id="rId1"/>
@@ -51,11 +51,10 @@
     <sheet name="panvira" sheetId="11" r:id="rId36"/>
     <sheet name="panvira_invited" sheetId="12" r:id="rId37"/>
     <sheet name="rocksprings" sheetId="17" r:id="rId38"/>
-    <sheet name="rocksprings_invited" sheetId="18" r:id="rId39"/>
-    <sheet name="icici" sheetId="19" r:id="rId40"/>
-    <sheet name="j&amp;m_copper" sheetId="21" r:id="rId41"/>
-    <sheet name="redwood" sheetId="25" r:id="rId42"/>
-    <sheet name="redwood_invited" sheetId="26" r:id="rId43"/>
+    <sheet name="icici" sheetId="19" r:id="rId39"/>
+    <sheet name="j&amp;m_copper" sheetId="21" r:id="rId40"/>
+    <sheet name="redwood" sheetId="25" r:id="rId41"/>
+    <sheet name="redwood_invited" sheetId="26" r:id="rId42"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -78,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="446">
   <si>
     <t>rachel.yin@carretprivate.com</t>
   </si>
@@ -186,9 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inness@carretprivate.com</t>
-  </si>
-  <si>
     <t>intern6@carretprivate.com</t>
   </si>
   <si>
@@ -573,9 +569,6 @@
     <t>amit@anekcapital.com</t>
   </si>
   <si>
-    <t>barak@anekcapital.com</t>
-  </si>
-  <si>
     <t>ofer@anekcapital.com</t>
   </si>
   <si>
@@ -698,7 +691,7 @@
   </si>
   <si>
     <t>Sales</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Sales</t>
@@ -1047,12 +1040,18 @@
     <t>pending</t>
   </si>
   <si>
+    <t>✅</t>
+  </si>
+  <si>
     <t>allen.lee@trivest-advisors.com</t>
   </si>
   <si>
     <t>allen.lee</t>
   </si>
   <si>
+    <t>❌</t>
+  </si>
+  <si>
     <t>jack.wei@trivest-advisors.com</t>
   </si>
   <si>
@@ -1396,13 +1395,52 @@
   </si>
   <si>
     <t>stefanchang@gmail.com</t>
+  </si>
+  <si>
+    <t>Sanjeev Rana</t>
+  </si>
+  <si>
+    <t>christopher.kim@clsa.com</t>
+  </si>
+  <si>
+    <t>Christopher Kim</t>
+  </si>
+  <si>
+    <t>james.druce@clsa.com</t>
+  </si>
+  <si>
+    <t>james Druce</t>
+  </si>
+  <si>
+    <t>peiwen li</t>
+  </si>
+  <si>
+    <t>dan@anekcapital.com</t>
+  </si>
+  <si>
+    <t>Dan Egan</t>
+  </si>
+  <si>
+    <t>Orel levy</t>
+  </si>
+  <si>
+    <t>Akhil Chainwala</t>
+  </si>
+  <si>
+    <t>panvira@api_user.com</t>
+  </si>
+  <si>
+    <t>Vaibhav Singh API User API User</t>
+  </si>
+  <si>
+    <t>DAVID GARDNER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1444,12 +1482,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
@@ -1530,11 +1562,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1556,34 +1588,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1924,7 +1953,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1935,339 +1964,339 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="14">
+        <v>45826</v>
+      </c>
+      <c r="C2" s="14">
+        <v>45870</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="14">
+        <v>45818</v>
+      </c>
+      <c r="C3" s="14">
+        <v>45869</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B4" s="14">
+        <v>45818</v>
+      </c>
+      <c r="C4" s="14">
+        <v>45869</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="15">
-        <v>45826</v>
-      </c>
-      <c r="C2" s="15">
+      <c r="B5" s="14">
+        <v>45817</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="14">
+        <v>45845</v>
+      </c>
+      <c r="C6" s="14">
+        <v>45876</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="14">
+        <v>45818</v>
+      </c>
+      <c r="C7" s="14">
+        <v>45880</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="14">
+        <v>45845</v>
+      </c>
+      <c r="C8" s="14">
+        <v>45876</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="14">
+        <v>45834</v>
+      </c>
+      <c r="C9" s="14">
+        <v>45877</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="14">
+        <v>45841</v>
+      </c>
+      <c r="C10" s="14">
+        <v>45872</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" s="14">
+        <v>45859</v>
+      </c>
+      <c r="C11" s="14">
+        <v>45890</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="14">
+        <v>45520</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" s="14">
+        <v>45845</v>
+      </c>
+      <c r="C13" s="14">
+        <v>45881</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14" s="14">
+        <v>45817</v>
+      </c>
+      <c r="C14" s="14">
+        <v>45909</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B15" s="7">
+        <v>45852</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="B16" s="7">
+        <v>45469</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="B17" s="7">
+        <v>45866</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B18" s="7">
+        <v>45867</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="B19" s="7">
+        <v>45804</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B20" s="7">
+        <v>45869</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="B21" s="14">
+        <v>45817</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="B22" s="7">
+        <v>45810</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="B23" s="7">
+        <v>45866</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="B24" s="7">
         <v>45870</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="15">
-        <v>45818</v>
-      </c>
-      <c r="C3" s="15">
+      <c r="D24" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="B25" s="7">
         <v>45869</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="B4" s="15">
-        <v>45818</v>
-      </c>
-      <c r="C4" s="15">
-        <v>45869</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="B5" s="15">
-        <v>45817</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="B6" s="15">
-        <v>45845</v>
-      </c>
-      <c r="C6" s="15">
-        <v>45876</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="B7" s="15">
-        <v>45818</v>
-      </c>
-      <c r="C7" s="15">
-        <v>45880</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="B8" s="15">
-        <v>45845</v>
-      </c>
-      <c r="C8" s="15">
-        <v>45876</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="B9" s="15">
-        <v>45834</v>
-      </c>
-      <c r="C9" s="15">
-        <v>45877</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B10" s="15">
-        <v>45841</v>
-      </c>
-      <c r="C10" s="15">
-        <v>45872</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B11" s="15">
-        <v>45859</v>
-      </c>
-      <c r="C11" s="15">
-        <v>45890</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="B12" s="15">
-        <v>45520</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="B13" s="15">
-        <v>45845</v>
-      </c>
-      <c r="C13" s="15">
-        <v>45881</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="B14" s="15">
-        <v>45817</v>
-      </c>
-      <c r="C14" s="15">
-        <v>45909</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="B15" s="8">
-        <v>45852</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="B16" s="8">
-        <v>45469</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="B17" s="8">
-        <v>45866</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="B18" s="8">
-        <v>45867</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B19" s="8">
-        <v>45804</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="B20" s="8">
-        <v>45869</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="B21" s="15">
-        <v>45817</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+      <c r="D25" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="B22" s="8">
-        <v>45810</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="B23" s="8">
-        <v>45866</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="B24" s="8">
+      <c r="B26" s="7">
         <v>45870</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="B25" s="8">
-        <v>45869</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="B26" s="8">
-        <v>45870</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>285</v>
+      <c r="D26" s="13" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2296,10 +2325,10 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.2">
@@ -2313,7 +2342,7 @@
         <v>377</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2331,7 +2360,7 @@
         <v>377</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
@@ -2378,7 +2407,7 @@
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.2">
@@ -2389,7 +2418,7 @@
         <v>370</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.2">
@@ -2400,7 +2429,7 @@
         <v>370</v>
       </c>
       <c r="C3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="21" x14ac:dyDescent="0.2">
@@ -2444,10 +2473,10 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
@@ -2458,10 +2487,10 @@
         <v>362</v>
       </c>
       <c r="C2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2476,10 +2505,10 @@
         <v>364</v>
       </c>
       <c r="C3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -2494,10 +2523,10 @@
         <v>366</v>
       </c>
       <c r="C4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -2512,10 +2541,10 @@
         <v>368</v>
       </c>
       <c r="C5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -2545,7 +2574,7 @@
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2553,10 +2582,10 @@
         <v>369</v>
       </c>
       <c r="B2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2585,10 +2614,10 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
@@ -2602,7 +2631,7 @@
         <v>351</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2620,7 +2649,7 @@
         <v>351</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -2653,10 +2682,10 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.2">
@@ -2682,15 +2711,15 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -2736,24 +2765,24 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2762,16 +2791,16 @@
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -2786,10 +2815,10 @@
         <v>319</v>
       </c>
       <c r="C4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -2804,10 +2833,10 @@
         <v>321</v>
       </c>
       <c r="C5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -2822,7 +2851,7 @@
         <v>323</v>
       </c>
       <c r="C6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>324</v>
@@ -2840,10 +2869,10 @@
         <v>326</v>
       </c>
       <c r="C7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2858,10 +2887,10 @@
         <v>328</v>
       </c>
       <c r="C8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -2876,10 +2905,10 @@
         <v>330</v>
       </c>
       <c r="C9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -2894,10 +2923,10 @@
         <v>332</v>
       </c>
       <c r="C10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2912,10 +2941,10 @@
         <v>334</v>
       </c>
       <c r="C11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -2930,10 +2959,10 @@
         <v>336</v>
       </c>
       <c r="C12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2948,10 +2977,10 @@
         <v>338</v>
       </c>
       <c r="C13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2966,10 +2995,10 @@
         <v>340</v>
       </c>
       <c r="C14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2984,10 +3013,10 @@
         <v>342</v>
       </c>
       <c r="C15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -3002,10 +3031,10 @@
         <v>344</v>
       </c>
       <c r="C16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -3020,10 +3049,10 @@
         <v>346</v>
       </c>
       <c r="C17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -3038,10 +3067,10 @@
         <v>348</v>
       </c>
       <c r="C18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -3071,7 +3100,7 @@
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
@@ -3082,7 +3111,7 @@
         <v>350</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
@@ -3093,7 +3122,7 @@
         <v>350</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.2">
@@ -3137,24 +3166,24 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" t="s">
         <v>202</v>
-      </c>
-      <c r="E1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="B2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D2" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3183,49 +3212,49 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -3234,16 +3263,16 @@
     </row>
     <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -3252,16 +3281,16 @@
     </row>
     <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3270,16 +3299,16 @@
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -3288,16 +3317,16 @@
     </row>
     <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -3307,7 +3336,7 @@
     <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="D9" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -3317,7 +3346,7 @@
     <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="D10" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -3350,21 +3379,21 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>432</v>
       </c>
       <c r="B2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -3377,7 +3406,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3390,18 +3419,18 @@
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="3"/>
@@ -3411,13 +3440,13 @@
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3448,24 +3477,24 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" s="10" t="s">
         <v>233</v>
       </c>
+      <c r="C2" s="9" t="s">
+        <v>231</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -3474,16 +3503,16 @@
     </row>
     <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>233</v>
+        <v>235</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>231</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -3516,18 +3545,18 @@
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>233</v>
+        <v>236</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>231</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3556,24 +3585,24 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>232</v>
+        <v>238</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>230</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -3582,16 +3611,16 @@
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>232</v>
+        <v>240</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>230</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -3600,16 +3629,16 @@
     </row>
     <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>232</v>
+        <v>242</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>230</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -3639,18 +3668,18 @@
         <v>32</v>
       </c>
       <c r="C1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="B2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3666,7 +3695,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3682,24 +3711,24 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>231</v>
+        <v>246</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="1"/>
@@ -3708,15 +3737,17 @@
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -3724,13 +3755,13 @@
     </row>
     <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>231</v>
+        <v>251</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3740,13 +3771,13 @@
     </row>
     <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>231</v>
+        <v>253</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3756,13 +3787,13 @@
     </row>
     <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>231</v>
+        <v>255</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3772,16 +3803,16 @@
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>231</v>
+        <v>257</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1"/>
@@ -3790,13 +3821,13 @@
     </row>
     <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>231</v>
+        <v>259</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3806,16 +3837,16 @@
     </row>
     <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>231</v>
+        <v>261</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1"/>
@@ -3824,13 +3855,13 @@
     </row>
     <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>231</v>
+        <v>263</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3840,13 +3871,13 @@
     </row>
     <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>231</v>
+        <v>265</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -3856,13 +3887,13 @@
     </row>
     <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>231</v>
+        <v>267</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -3872,16 +3903,16 @@
     </row>
     <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>231</v>
+        <v>269</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="1"/>
@@ -3890,13 +3921,13 @@
     </row>
     <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>231</v>
+        <v>271</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -3906,16 +3937,16 @@
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>231</v>
+        <v>272</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="1"/>
@@ -3924,13 +3955,13 @@
     </row>
     <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>231</v>
+        <v>274</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -3940,16 +3971,16 @@
     </row>
     <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>231</v>
+        <v>276</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
@@ -3958,19 +3989,19 @@
     </row>
     <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>231</v>
+        <v>278</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -3999,29 +4030,29 @@
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>231</v>
+        <v>273</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>231</v>
+        <v>279</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="3"/>
@@ -4031,13 +4062,13 @@
     </row>
     <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>231</v>
+        <v>280</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -4062,7 +4093,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4082,10 +4113,10 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
@@ -4128,8 +4159,11 @@
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -4191,10 +4225,10 @@
         <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -4256,7 +4290,7 @@
         <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -4333,7 +4367,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4346,7 +4380,7 @@
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.2">
@@ -4357,19 +4391,10 @@
         <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="3"/>
@@ -4413,283 +4438,283 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>217</v>
+      <c r="A9" s="9" t="s">
+        <v>215</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -4719,10 +4744,10 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.2">
@@ -4773,7 +4798,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4786,18 +4811,18 @@
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="3"/>
@@ -4807,13 +4832,13 @@
     </row>
     <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
@@ -4823,13 +4848,13 @@
     </row>
     <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="3"/>
@@ -4862,280 +4887,280 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>91</v>
-      </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>103</v>
-      </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>111</v>
-      </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>119</v>
-      </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" t="s">
         <v>121</v>
       </c>
-      <c r="C22" t="s">
-        <v>122</v>
-      </c>
       <c r="E22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5146,10 +5171,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B76C5C3-FCF7-7643-BB3D-9A0D6591C2D8}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5165,199 +5190,402 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>433</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>204</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>434</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>435</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>196</v>
+        <v>146</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>197</v>
+        <v>146</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>199</v>
+        <v>146</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>204</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>133</v>
+        <v>436</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>134</v>
+        <v>437</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>204</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>204</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>195</v>
+        <v>146</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>204</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>196</v>
+    </row>
+    <row r="18" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -5371,7 +5599,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5384,38 +5612,38 @@
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -5426,16 +5654,16 @@
     </row>
     <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -5446,16 +5674,16 @@
     </row>
     <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -5469,13 +5697,13 @@
         <v>152</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -5486,16 +5714,16 @@
     </row>
     <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -5506,16 +5734,16 @@
     </row>
     <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -5525,18 +5753,6 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="3"/>
@@ -5545,18 +5761,6 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="3"/>
@@ -5581,15 +5785,15 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD7BE0E-3A9C-3C4B-AD88-E42C390A0042}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -5600,42 +5804,95 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B5" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5648,7 +5905,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5661,18 +5918,18 @@
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="1"/>
@@ -5680,30 +5937,15 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="3"/>
       <c r="E4" s="1"/>
     </row>
@@ -5715,15 +5957,15 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BD8450-3D6A-2844-B51B-4BB55AADF2F6}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -5734,42 +5976,93 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" t="s">
         <v>202</v>
       </c>
-      <c r="E1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" t="s">
-        <v>215</v>
+      <c r="B3" s="1" t="s">
+        <v>442</v>
       </c>
       <c r="C3" t="s">
-        <v>216</v>
-      </c>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{BC6292E4-63B2-2C45-8FC1-EE80E275BF41}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5779,7 +6072,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5792,31 +6085,19 @@
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -5841,10 +6122,10 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171458C0-70BA-BB43-97B3-819816159727}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5860,32 +6141,32 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>445</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
@@ -5895,13 +6176,13 @@
     </row>
     <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1"/>
@@ -5911,13 +6192,13 @@
     </row>
     <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="1"/>
@@ -5927,13 +6208,13 @@
     </row>
     <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1"/>
@@ -5943,13 +6224,13 @@
     </row>
     <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1"/>
@@ -5959,13 +6240,13 @@
     </row>
     <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" t="s">
         <v>181</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" t="s">
-        <v>183</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="1"/>
@@ -5974,9 +6255,80 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" t="s">
+        <v>181</v>
+      </c>
       <c r="E9" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="2:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="2:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="2:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="2:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="2:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="2:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="2:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5985,41 +6337,79 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F8C68A-B9BA-9743-BE06-2841AAAA9C55}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5849B3EF-4806-7646-80B0-1F8B3F584CC7}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="C2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" t="s">
+        <v>189</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6048,10 +6438,10 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
@@ -6062,7 +6452,7 @@
         <v>417</v>
       </c>
       <c r="C2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
@@ -6073,7 +6463,7 @@
         <v>419</v>
       </c>
       <c r="C3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.2">
@@ -6084,7 +6474,7 @@
         <v>421</v>
       </c>
       <c r="C4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.2">
@@ -6095,7 +6485,7 @@
         <v>423</v>
       </c>
       <c r="C5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.2">
@@ -6136,92 +6526,11 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5849B3EF-4806-7646-80B0-1F8B3F584CC7}">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D26009C-03B2-E14D-A4A0-339B3D7C115B}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6237,32 +6546,35 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" t="s">
         <v>202</v>
-      </c>
-      <c r="E1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C3" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -6270,7 +6582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AD43AC-2D64-9042-9D64-4C344B77958F}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -6291,24 +6603,24 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" t="s">
         <v>202</v>
-      </c>
-      <c r="E1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D2" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -6316,12 +6628,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0C1005-93B6-B545-96A6-84A08D6CABE3}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6334,16 +6646,16 @@
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -6369,7 +6681,7 @@
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.2">
@@ -6377,10 +6689,10 @@
         <v>424</v>
       </c>
       <c r="B2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.2">
@@ -6388,10 +6700,10 @@
         <v>425</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.2">
@@ -6399,10 +6711,10 @@
         <v>426</v>
       </c>
       <c r="B4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="21" x14ac:dyDescent="0.2">
@@ -6455,14 +6767,14 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>410</v>
       </c>
       <c r="B2" t="s">
@@ -6472,11 +6784,11 @@
         <v>409</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>412</v>
       </c>
       <c r="B3" t="s">
@@ -6487,7 +6799,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>414</v>
       </c>
       <c r="B4" t="s">
@@ -6497,7 +6809,7 @@
         <v>409</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -6526,10 +6838,10 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
@@ -6540,7 +6852,7 @@
         <v>392</v>
       </c>
       <c r="C2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
@@ -6551,7 +6863,7 @@
         <v>394</v>
       </c>
       <c r="C3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.2">
@@ -6562,7 +6874,7 @@
         <v>396</v>
       </c>
       <c r="C4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.2">
@@ -6573,10 +6885,10 @@
         <v>398</v>
       </c>
       <c r="C5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -6591,10 +6903,10 @@
         <v>400</v>
       </c>
       <c r="C6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -6609,10 +6921,10 @@
         <v>402</v>
       </c>
       <c r="C7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -6627,10 +6939,10 @@
         <v>404</v>
       </c>
       <c r="C8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -6645,10 +6957,10 @@
         <v>406</v>
       </c>
       <c r="C9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -6663,10 +6975,10 @@
         <v>408</v>
       </c>
       <c r="C10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -6723,10 +7035,10 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.2">
@@ -6813,7 +7125,7 @@
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.2">
@@ -6824,7 +7136,7 @@
         <v>380</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.2">
@@ -6835,20 +7147,20 @@
         <v>380</v>
       </c>
       <c r="C3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
